--- a/data/trans_orig/P1431-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1431-Estudios-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>24052</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15433</v>
+        <v>15245</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>36094</v>
+        <v>34677</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02467779483978733</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01583417734663659</v>
+        <v>0.01564135608126478</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03703317596970217</v>
+        <v>0.03557910356646075</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>31</v>
@@ -763,19 +763,19 @@
         <v>31907</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>21395</v>
+        <v>21974</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>44273</v>
+        <v>43924</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02387028631337833</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01600592647325264</v>
+        <v>0.01643900139624153</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03312111613342458</v>
+        <v>0.0328600929498505</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>53</v>
@@ -784,19 +784,19 @@
         <v>55959</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>42920</v>
+        <v>41395</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>71068</v>
+        <v>73135</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02421079684776507</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01856922257431501</v>
+        <v>0.01790949101327307</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03074775791107331</v>
+        <v>0.03164173868660444</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>950591</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>938549</v>
+        <v>939966</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>959210</v>
+        <v>959398</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9753222051602126</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9629668240302984</v>
+        <v>0.9644208964335393</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9841658226533635</v>
+        <v>0.9843586439187354</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1215</v>
@@ -834,19 +834,19 @@
         <v>1304781</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1292415</v>
+        <v>1292764</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1315293</v>
+        <v>1314714</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9761297136866217</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9668788838665755</v>
+        <v>0.9671399070501496</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9839940735267475</v>
+        <v>0.9835609986037586</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2101</v>
@@ -855,19 +855,19 @@
         <v>2255372</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2240263</v>
+        <v>2238196</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2268411</v>
+        <v>2269936</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9757892031522349</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9692522420889266</v>
+        <v>0.9683582613133953</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.981430777425685</v>
+        <v>0.9820905089867267</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>15047</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8507</v>
+        <v>8429</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>24325</v>
+        <v>24385</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.007661448334312271</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004331644552354881</v>
+        <v>0.004291749730627432</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01238594858604651</v>
+        <v>0.0124161251105003</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>17</v>
@@ -980,19 +980,19 @@
         <v>17333</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>11092</v>
+        <v>10374</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>27721</v>
+        <v>27423</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.00987893005542328</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.00632166448878983</v>
+        <v>0.005912685350230385</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01579888549289249</v>
+        <v>0.015629506229035</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>31</v>
@@ -1001,19 +1001,19 @@
         <v>32380</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>22239</v>
+        <v>22012</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>44900</v>
+        <v>44858</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.008707763786024763</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.005980486987996554</v>
+        <v>0.005919511416853903</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01207450970472592</v>
+        <v>0.01206329115700273</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>1948910</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1939632</v>
+        <v>1939572</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1955450</v>
+        <v>1955528</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9923385516656877</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9876140514139535</v>
+        <v>0.9875838748894997</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9956683554476452</v>
+        <v>0.9957082502693726</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1616</v>
@@ -1051,19 +1051,19 @@
         <v>1737259</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1726871</v>
+        <v>1727169</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1743500</v>
+        <v>1744218</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9901210699445767</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9842011145071076</v>
+        <v>0.9843704937709647</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9936783355112102</v>
+        <v>0.9940873146497696</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3458</v>
@@ -1072,19 +1072,19 @@
         <v>3686169</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3673649</v>
+        <v>3673691</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3696310</v>
+        <v>3696537</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9912922362139752</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9879254902952742</v>
+        <v>0.9879367088429972</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9940195130120035</v>
+        <v>0.9940804885831459</v>
       </c>
     </row>
     <row r="9">
@@ -1179,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6082</v>
+        <v>6565</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.00388117255941305</v>
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01263952685573872</v>
+        <v>0.01364296645443733</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -1197,19 +1197,19 @@
         <v>3761</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>11760</v>
+        <v>11542</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.008200943265478695</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.002125163504815755</v>
+        <v>0.00211922225196278</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02564073761568275</v>
+        <v>0.02516606362803517</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>5</v>
@@ -1218,19 +1218,19 @@
         <v>5629</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1900</v>
+        <v>1885</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>12909</v>
+        <v>12905</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.005989232501063468</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.00202168828423868</v>
+        <v>0.002005929150884598</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01373530044379338</v>
+        <v>0.01373107834627585</v>
       </c>
     </row>
     <row r="11">
@@ -1247,7 +1247,7 @@
         <v>479313</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>475099</v>
+        <v>474616</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>481181</v>
@@ -1256,7 +1256,7 @@
         <v>0.996118827440587</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9873604731442593</v>
+        <v>0.9863570335455626</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1268,19 +1268,19 @@
         <v>454870</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>446871</v>
+        <v>447089</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>457656</v>
+        <v>457659</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9917990567345213</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9743592623843172</v>
+        <v>0.9748339363719646</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9978748364951843</v>
+        <v>0.9978807777480373</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>845</v>
@@ -1289,19 +1289,19 @@
         <v>934184</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>926904</v>
+        <v>926908</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>937913</v>
+        <v>937928</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9940107674989366</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9862646995562065</v>
+        <v>0.9862689216537242</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9979783117157613</v>
+        <v>0.9979940708491154</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>40966</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>29530</v>
+        <v>29158</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>55890</v>
+        <v>55827</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01197922803467235</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.008634934882442161</v>
+        <v>0.008526414381338287</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01634305002232352</v>
+        <v>0.0163246013926948</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>51</v>
@@ -1414,19 +1414,19 @@
         <v>53002</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>40566</v>
+        <v>40575</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>68745</v>
+        <v>68166</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01493046520427484</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01142745810112787</v>
+        <v>0.01142985567976587</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01936517775444044</v>
+        <v>0.01920206405914054</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>89</v>
@@ -1435,19 +1435,19 @@
         <v>93968</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>76250</v>
+        <v>75776</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>114108</v>
+        <v>115174</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01348239748355312</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01094026020244833</v>
+        <v>0.01087228523440748</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01637198678425049</v>
+        <v>0.01652496339610052</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>3378816</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3363892</v>
+        <v>3363955</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3390252</v>
+        <v>3390624</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9880207719653277</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9836569499776764</v>
+        <v>0.9836753986073054</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9913650651175577</v>
+        <v>0.9914735856186618</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3240</v>
@@ -1485,19 +1485,19 @@
         <v>3496909</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3481166</v>
+        <v>3481745</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3509345</v>
+        <v>3509336</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9850695347957251</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9806348222455595</v>
+        <v>0.9807979359408595</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9885725418988721</v>
+        <v>0.9885701443202342</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6404</v>
@@ -1506,19 +1506,19 @@
         <v>6875725</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6855585</v>
+        <v>6854519</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6893443</v>
+        <v>6893917</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9865176025164469</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9836280132157496</v>
+        <v>0.9834750366038993</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9890597397975519</v>
+        <v>0.9891277147655924</v>
       </c>
     </row>
     <row r="15">
@@ -1849,19 +1849,19 @@
         <v>11841</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6262</v>
+        <v>6556</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>19737</v>
+        <v>19930</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01569746806358799</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.008301727142963376</v>
+        <v>0.008690381744100814</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02616475141384633</v>
+        <v>0.02641993053135125</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>32</v>
@@ -1870,19 +1870,19 @@
         <v>35977</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>25917</v>
+        <v>24753</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>50083</v>
+        <v>49162</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0361698558177576</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02605583440665616</v>
+        <v>0.02488608392254402</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05035150666116714</v>
+        <v>0.04942550276515214</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>45</v>
@@ -1891,19 +1891,19 @@
         <v>47818</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>35517</v>
+        <v>35626</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>65283</v>
+        <v>63538</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02734011404269036</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02030683413016847</v>
+        <v>0.02036948333163495</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03732561483836511</v>
+        <v>0.0363278615677361</v>
       </c>
     </row>
     <row r="5">
@@ -1920,19 +1920,19 @@
         <v>742506</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>734610</v>
+        <v>734417</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>748085</v>
+        <v>747791</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.984302531936412</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9738352485861538</v>
+        <v>0.9735800694686487</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9916982728570366</v>
+        <v>0.9913096182558992</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>860</v>
@@ -1941,19 +1941,19 @@
         <v>958683</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>944577</v>
+        <v>945498</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>968743</v>
+        <v>969907</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9638301441822424</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9496484933388327</v>
+        <v>0.9505744972348479</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9739441655933437</v>
+        <v>0.975113916077456</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1609</v>
@@ -1962,19 +1962,19 @@
         <v>1701189</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1683724</v>
+        <v>1685469</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1713490</v>
+        <v>1713381</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9726598859573097</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9626743851616347</v>
+        <v>0.9636721384322642</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9796931658698312</v>
+        <v>0.9796305166683652</v>
       </c>
     </row>
     <row r="6">
@@ -2066,19 +2066,19 @@
         <v>25637</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>16910</v>
+        <v>17066</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>36846</v>
+        <v>36582</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0123468447562577</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.008143989067280873</v>
+        <v>0.008219077159457947</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01774531352085193</v>
+        <v>0.01761790503115211</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>17</v>
@@ -2087,19 +2087,19 @@
         <v>18700</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>11265</v>
+        <v>11299</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>29403</v>
+        <v>29791</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.009405250706599371</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.005665773371391723</v>
+        <v>0.005682947251369243</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01478803587322034</v>
+        <v>0.01498303378538464</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>42</v>
@@ -2108,19 +2108,19 @@
         <v>44337</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>33396</v>
+        <v>32141</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>59743</v>
+        <v>58939</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01090792105221495</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.008216204736147609</v>
+        <v>0.007907456763027381</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01469812684097207</v>
+        <v>0.01450028686826036</v>
       </c>
     </row>
     <row r="8">
@@ -2137,19 +2137,19 @@
         <v>2050748</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2039539</v>
+        <v>2039803</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2059475</v>
+        <v>2059319</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9876531552437423</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9822546864791482</v>
+        <v>0.9823820949688479</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9918560109327191</v>
+        <v>0.9917809228405419</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1891</v>
@@ -2158,19 +2158,19 @@
         <v>1969600</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1958897</v>
+        <v>1958509</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1977035</v>
+        <v>1977001</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9905947492934006</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9852119641267796</v>
+        <v>0.9850169662146153</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9943342266286083</v>
+        <v>0.9943170527486307</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3818</v>
@@ -2179,19 +2179,19 @@
         <v>4020348</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4004942</v>
+        <v>4005746</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4031289</v>
+        <v>4032544</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9890920789477851</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.985301873159028</v>
+        <v>0.9854997131317396</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9917837952638524</v>
+        <v>0.9920925432369726</v>
       </c>
     </row>
     <row r="9">
@@ -2283,19 +2283,19 @@
         <v>7994</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3277</v>
+        <v>3139</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16181</v>
+        <v>16272</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01461657759107289</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005991587461812067</v>
+        <v>0.005739707614676083</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02958808232500603</v>
+        <v>0.02975307484696888</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7599</v>
+        <v>7428</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.00391316460785223</v>
@@ -2316,7 +2316,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01383820943763368</v>
+        <v>0.01352597045314067</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>9</v>
@@ -2325,19 +2325,19 @@
         <v>10142</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4903</v>
+        <v>4435</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>18833</v>
+        <v>18222</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.009253864511512491</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004473371612586804</v>
+        <v>0.004046583362785572</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0171834045259957</v>
+        <v>0.016625163792541</v>
       </c>
     </row>
     <row r="11">
@@ -2354,19 +2354,19 @@
         <v>538892</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>530705</v>
+        <v>530614</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>543609</v>
+        <v>543747</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9853834224089271</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9704119176749939</v>
+        <v>0.970246925153032</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9940084125381879</v>
+        <v>0.994260292385324</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>524</v>
@@ -2375,7 +2375,7 @@
         <v>546991</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>541541</v>
+        <v>541712</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>549140</v>
@@ -2384,7 +2384,7 @@
         <v>0.9960868353921478</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9861617905623666</v>
+        <v>0.9864740295468598</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -2396,19 +2396,19 @@
         <v>1085885</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1077194</v>
+        <v>1077805</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1091124</v>
+        <v>1091592</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9907461354884876</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9828165954740039</v>
+        <v>0.9833748362074589</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9955266283874131</v>
+        <v>0.9959534166372145</v>
       </c>
     </row>
     <row r="12">
@@ -2500,19 +2500,19 @@
         <v>45472</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>32466</v>
+        <v>33574</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>59484</v>
+        <v>59889</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01346266592773292</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.009612094490821029</v>
+        <v>0.009940142036982357</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01761126623207989</v>
+        <v>0.01773118292193746</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>51</v>
@@ -2521,19 +2521,19 @@
         <v>56826</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>44040</v>
+        <v>41588</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>75729</v>
+        <v>74079</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01608845817266488</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01246841806992949</v>
+        <v>0.01177431516095827</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02144011993339845</v>
+        <v>0.02097298132503653</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>96</v>
@@ -2542,19 +2542,19 @@
         <v>102298</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>84101</v>
+        <v>80606</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>126789</v>
+        <v>121188</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01480491486172689</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01217133855263327</v>
+        <v>0.01166564164538441</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01834942271951029</v>
+        <v>0.01753879815911272</v>
       </c>
     </row>
     <row r="14">
@@ -2571,19 +2571,19 @@
         <v>3332146</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3318134</v>
+        <v>3317729</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3345152</v>
+        <v>3344044</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9865373340722671</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.98238873376792</v>
+        <v>0.9822688170780626</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.990387905509179</v>
+        <v>0.9900598579630177</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3275</v>
@@ -2592,19 +2592,19 @@
         <v>3475274</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3456371</v>
+        <v>3458021</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3488060</v>
+        <v>3490512</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9839115418273351</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9785598800666017</v>
+        <v>0.979027018674964</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9875315819300706</v>
+        <v>0.9882256848390419</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6445</v>
@@ -2613,19 +2613,19 @@
         <v>6807420</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6782929</v>
+        <v>6788530</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6825617</v>
+        <v>6829112</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9851950851382731</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9816505772804898</v>
+        <v>0.9824612018408871</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9878286614473667</v>
+        <v>0.9883343583546154</v>
       </c>
     </row>
     <row r="15">
